--- a/CRUD/资料/信号设备建筑模板.xlsx
+++ b/CRUD/资料/信号设备建筑模板.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="11700"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="信号设备建筑限界" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">信号设备建筑限界!$A$5:$AD$113</definedName>
@@ -677,9 +676,34 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,15 +718,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,28 +746,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,47 +808,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -808,31 +830,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -877,7 +876,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,7 +1002,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,157 +1044,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,30 +1075,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1152,8 +1121,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1173,6 +1142,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1191,167 +1184,167 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1360,13 +1353,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1854,10 +1847,10 @@
   </sheetPr>
   <dimension ref="A1:AD133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AA10" sqref="AA10"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -6594,21 +6587,4 @@
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>